--- a/AAII_Financials/Quarterly/IOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>IOT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,157 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
         <v>44499</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44317</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44226</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44044</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43953</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E8" s="3">
         <v>113800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>101000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>87700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>75900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>66200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>56800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>51000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E9" s="3">
         <v>31800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>28400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>25600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>21200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E10" s="3">
         <v>82000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>72600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>62100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>54700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>47500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>37900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>34400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,37 +827,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E12" s="3">
         <v>29700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>33500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,8 +889,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -881,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -893,16 +913,19 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>6800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -930,8 +953,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +966,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>377500</v>
+      </c>
+      <c r="E17" s="3">
         <v>146100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>132300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>126300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>111200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>120500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>112900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>114700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-251700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-32300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-31300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-38600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-35300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-54300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-56100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-63700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-68300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1011,42 +1044,46 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>16</v>
+      <c r="D21" s="3">
+        <v>-249800</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
@@ -1054,23 +1091,26 @@
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="3">
         <v>-25400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-46000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1098,49 +1138,55 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-252000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-32400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-38400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-54300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-56000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-63600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1154,10 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1234,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-252800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-32400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-38400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-36200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-54300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-56000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-63700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-252800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-32400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-38400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-36200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-54300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-56000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-63700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1330,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1362,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1394,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1426,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-252800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-32400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-38400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-36200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-54300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-56000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-63700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1522,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-252800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-32400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-38400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-36200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-54300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-56000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-63700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
         <v>44499</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44317</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44226</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44044</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43953</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1607,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,17 +1621,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>921200</v>
+      </c>
+      <c r="E41" s="3">
         <v>267500</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1564,8 +1651,11 @@
       <c r="K41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,17 +1683,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E43" s="3">
         <v>59400</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1622,17 +1715,20 @@
       <c r="K43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E44" s="3">
         <v>22300</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>16</v>
       </c>
@@ -1651,17 +1747,20 @@
       <c r="K44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E45" s="3">
         <v>56800</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1680,17 +1779,20 @@
       <c r="K45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100200</v>
+      </c>
+      <c r="E46" s="3">
         <v>406000</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
       </c>
@@ -1709,8 +1811,11 @@
       <c r="K46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1738,17 +1843,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>171200</v>
+      </c>
+      <c r="E48" s="3">
         <v>168800</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>16</v>
       </c>
@@ -1767,8 +1875,11 @@
       <c r="K48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1796,8 +1907,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1939,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,17 +1971,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>296600</v>
+      </c>
+      <c r="E52" s="3">
         <v>264700</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>16</v>
       </c>
@@ -1883,8 +2003,11 @@
       <c r="K52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,17 +2035,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1567900</v>
+      </c>
+      <c r="E54" s="3">
         <v>839500</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>16</v>
       </c>
@@ -1941,8 +2067,11 @@
       <c r="K54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2083,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,17 +2097,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E57" s="3">
         <v>42300</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>16</v>
       </c>
@@ -1996,8 +2127,11 @@
       <c r="K57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2025,17 +2159,20 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>283600</v>
+      </c>
+      <c r="E59" s="3">
         <v>242100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2054,17 +2191,20 @@
       <c r="K59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>338300</v>
+      </c>
+      <c r="E60" s="3">
         <v>284400</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2083,8 +2223,11 @@
       <c r="K60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2112,17 +2255,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>240700</v>
+      </c>
+      <c r="E62" s="3">
         <v>235300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2141,8 +2287,11 @@
       <c r="K62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2319,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2351,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,17 +2383,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>579000</v>
+      </c>
+      <c r="E66" s="3">
         <v>519700</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2257,8 +2415,11 @@
       <c r="K66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2431,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2461,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,17 +2493,20 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>949100</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -2357,8 +2525,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,17 +2557,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-921000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-668200</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
       </c>
@@ -2415,8 +2589,11 @@
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2621,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2653,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,17 +2685,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>988900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-629200</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>16</v>
       </c>
@@ -2531,8 +2717,11 @@
       <c r="K76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2749,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
         <v>44499</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44317</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44226</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44044</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43953</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-252800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-32400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-38400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-36200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-54300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-56000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-63700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +2834,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>2200</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2896,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2928,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2960,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2992,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3024,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-48300</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3072,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-9400</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3134,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3166,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-9500</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3214,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3244,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3276,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3308,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3340,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>703000</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>645100</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IOT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,169 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44499</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44317</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44226</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44044</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43953</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E8" s="3">
         <v>125800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>113800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>101000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>87700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>75900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>66200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>56800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>51000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E9" s="3">
         <v>38700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>31800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>28400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>25600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>21200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E10" s="3">
         <v>87100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>82000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>72600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>62100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>54700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>47500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>37900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>34400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,40 +840,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E12" s="3">
         <v>126500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,20 +908,23 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -916,16 +935,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>6800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,8 +978,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -967,72 +992,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>212900</v>
+      </c>
+      <c r="E17" s="3">
         <v>377500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>146100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>132300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>126300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>111200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>120500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>112900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>114700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-251700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-38600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-35300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-54300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-56100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-63700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-68300</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1045,72 +1077,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-249800</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
         <v>-25400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-46000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1141,55 +1180,61 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-252000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-32400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-38400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-54300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-56000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-63600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1203,10 +1248,13 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,72 +1285,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-252800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-32400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-38400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-54300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-56000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-63700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-252800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-32400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-38400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-36200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-54300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-56000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-63700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1333,8 +1390,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1365,8 +1425,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1397,8 +1460,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1429,72 +1495,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-252800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-32400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-38400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-54300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-56000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-63700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1525,77 +1600,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-252800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-32400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-38400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-54300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-56000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-63700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44499</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44317</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44226</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44044</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43953</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1608,8 +1692,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1622,20 +1707,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>859800</v>
+      </c>
+      <c r="E41" s="3">
         <v>921200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>267500</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1654,8 +1740,11 @@
       <c r="L41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1686,20 +1775,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E43" s="3">
         <v>82000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>59400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1718,20 +1810,23 @@
       <c r="L43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E44" s="3">
         <v>33100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>22300</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>16</v>
       </c>
@@ -1750,20 +1845,23 @@
       <c r="L44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E45" s="3">
         <v>63900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>56800</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1782,20 +1880,23 @@
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1068600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>406000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>16</v>
       </c>
@@ -1814,8 +1915,11 @@
       <c r="L46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1846,20 +1950,23 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>179200</v>
+      </c>
+      <c r="E48" s="3">
         <v>171200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>168800</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>16</v>
       </c>
@@ -1878,8 +1985,11 @@
       <c r="L48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1910,8 +2020,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1942,8 +2055,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1974,20 +2090,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>297100</v>
+      </c>
+      <c r="E52" s="3">
         <v>296600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>264700</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2006,8 +2125,11 @@
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2038,20 +2160,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1545000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1567900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>839500</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2070,8 +2195,11 @@
       <c r="L54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2084,8 +2212,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,20 +2227,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E57" s="3">
         <v>54700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>42300</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2130,8 +2260,11 @@
       <c r="L57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2162,20 +2295,23 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>311500</v>
+      </c>
+      <c r="E59" s="3">
         <v>283600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>242100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2194,20 +2330,23 @@
       <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>352300</v>
+      </c>
+      <c r="E60" s="3">
         <v>338300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>284400</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2226,8 +2365,11 @@
       <c r="L60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2258,20 +2400,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>230300</v>
+      </c>
+      <c r="E62" s="3">
         <v>240700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>235300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2290,8 +2435,11 @@
       <c r="L62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2322,8 +2470,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2354,8 +2505,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2386,20 +2540,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>582500</v>
+      </c>
+      <c r="E66" s="3">
         <v>579000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>519700</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2418,8 +2575,11 @@
       <c r="L66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2432,8 +2592,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2464,8 +2625,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2496,8 +2660,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2505,11 +2672,11 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>949100</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2528,8 +2695,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2560,20 +2730,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-991900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-921000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-668200</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
@@ -2592,8 +2765,11 @@
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2624,8 +2800,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2656,8 +2835,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2688,20 +2870,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>962400</v>
+      </c>
+      <c r="E76" s="3">
         <v>988900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-629200</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>16</v>
       </c>
@@ -2720,8 +2905,11 @@
       <c r="L76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2752,77 +2940,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44499</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44317</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44226</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44044</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43953</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-252800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-32400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-38400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-54300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-56000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-63700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2835,17 +3032,18 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E83" s="3">
         <v>2200</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>16</v>
       </c>
@@ -2861,14 +3059,17 @@
       <c r="J83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2899,8 +3100,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2931,8 +3135,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2963,8 +3170,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2995,8 +3205,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3027,17 +3240,20 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-48300</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>16</v>
       </c>
@@ -3053,14 +3269,17 @@
       <c r="J89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3073,17 +3292,18 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>16</v>
       </c>
@@ -3099,14 +3319,17 @@
       <c r="J91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3137,8 +3360,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3169,17 +3395,20 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9500</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>16</v>
       </c>
@@ -3195,14 +3424,17 @@
       <c r="J94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3215,8 +3447,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3247,8 +3480,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3279,8 +3515,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3311,8 +3550,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3343,17 +3585,20 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>703000</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>16</v>
       </c>
@@ -3369,22 +3614,25 @@
       <c r="J100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>16</v>
+      <c r="E101" s="3">
+        <v>-200</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>16</v>
@@ -3401,23 +3649,26 @@
       <c r="J101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="E102" s="3">
         <v>645100</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>16</v>
       </c>
@@ -3433,10 +3684,13 @@
       <c r="J102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IOT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,182 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44590</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44499</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44317</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44226</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44044</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43953</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>153500</v>
+      </c>
+      <c r="E8" s="3">
         <v>142600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>125800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>113800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>101000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>87700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>75900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>66200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>51000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E9" s="3">
         <v>39600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>38700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>31800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>28400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>25600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>21200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E10" s="3">
         <v>103000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>87100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>82000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>72600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>62100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>54700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>47500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>34400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,43 +854,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E12" s="3">
         <v>41000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>126500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>33500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,23 +928,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -938,16 +958,19 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>6800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,8 +1004,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,78 +1019,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>219300</v>
+      </c>
+      <c r="E17" s="3">
         <v>212900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>377500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>146100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>132300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>126300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>111200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>120500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>112900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>114700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-70300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-251700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-31300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-38600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-35300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-54300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-56100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-63700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-68300</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1078,78 +1111,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-67900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-249800</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
         <v>-25400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-46000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1183,61 +1223,67 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-70300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-252000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-32400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-38400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-36200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-54300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-56000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-63600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1251,10 +1297,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-71000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-252800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-32400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-31400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-38400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-54300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-56000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-63700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-71000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-252800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-32400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-31400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-38400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-36200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-54300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-56000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-63700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1451,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,8 +1489,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,78 +1565,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-71000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-252800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-32400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-31400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-38400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-36200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-54300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-56000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-63700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-71000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-252800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-32400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-31400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-38400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-36200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-54300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-56000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-63700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44590</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44499</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44317</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44226</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44044</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43953</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,23 +1794,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>826100</v>
+      </c>
+      <c r="E41" s="3">
         <v>859800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>921200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>267500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1743,8 +1830,11 @@
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,23 +1868,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E43" s="3">
         <v>84900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>82000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>59400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1813,23 +1906,26 @@
       <c r="M43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E44" s="3">
         <v>42000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>33100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>22300</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>16</v>
       </c>
@@ -1848,23 +1944,26 @@
       <c r="M44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E45" s="3">
         <v>81900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>63900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>56800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1883,23 +1982,26 @@
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1036000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1068600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>406000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>16</v>
       </c>
@@ -1918,8 +2020,11 @@
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1953,23 +2058,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>180100</v>
+      </c>
+      <c r="E48" s="3">
         <v>179200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>171200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>168800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>16</v>
       </c>
@@ -1988,8 +2096,11 @@
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2023,8 +2134,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,23 +2210,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>312900</v>
+      </c>
+      <c r="E52" s="3">
         <v>297100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>296600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>264700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2128,8 +2248,11 @@
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,23 +2286,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1529000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1545000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1567900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>839500</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2198,8 +2324,11 @@
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,23 +2358,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E57" s="3">
         <v>40800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>54700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>42300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2263,8 +2394,11 @@
       <c r="M57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2298,23 +2432,26 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>321400</v>
+      </c>
+      <c r="E59" s="3">
         <v>311500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>283600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>242100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2333,23 +2470,26 @@
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>341800</v>
+      </c>
+      <c r="E60" s="3">
         <v>352300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>338300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>284400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2368,8 +2508,11 @@
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2403,23 +2546,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E62" s="3">
         <v>230300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>240700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>235300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2438,8 +2584,11 @@
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,23 +2698,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>575900</v>
+      </c>
+      <c r="E66" s="3">
         <v>582500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>579000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>519700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2578,8 +2736,11 @@
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2828,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2675,11 +2843,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>949100</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2698,8 +2866,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,23 +2904,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1056200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-991900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-921000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-668200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>16</v>
       </c>
@@ -2768,8 +2942,11 @@
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,23 +3056,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>953100</v>
+      </c>
+      <c r="E76" s="3">
         <v>962400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>988900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-629200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>16</v>
       </c>
@@ -2908,8 +3094,11 @@
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44590</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44499</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44317</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44226</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44044</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43953</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-71000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-252800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-32400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-31400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-38400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-36200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-54300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-56000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-63700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,20 +3231,21 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
         <v>2400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2200</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>16</v>
       </c>
@@ -3062,14 +3261,17 @@
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,20 +3457,23 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-48800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-48300</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
@@ -3272,14 +3489,17 @@
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,20 +3513,21 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9400</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>16</v>
       </c>
@@ -3322,14 +3543,17 @@
       <c r="K91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,20 +3625,23 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9500</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>16</v>
       </c>
@@ -3427,14 +3657,17 @@
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3717,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,20 +3831,23 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>703000</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>16</v>
       </c>
@@ -3617,14 +3863,17 @@
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3634,8 +3883,8 @@
       <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
+      <c r="F101" s="3">
+        <v>-200</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>16</v>
@@ -3652,26 +3901,29 @@
       <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-61400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>645100</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>16</v>
       </c>
@@ -3687,10 +3939,13 @@
       <c r="K102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>IOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,195 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E7" s="2">
         <v>44772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44590</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44499</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44317</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44226</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44044</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43953</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>169800</v>
+      </c>
+      <c r="E8" s="3">
         <v>153500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>142600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>125800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>113800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>101000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>87700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>75900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>66200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>56800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>51000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E9" s="3">
         <v>44300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>39600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>38700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>31800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>28400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>25600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>122500</v>
+      </c>
+      <c r="E10" s="3">
         <v>109200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>103000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>87100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>82000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>72600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>62100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>54700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>47500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>34400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,46 +868,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E12" s="3">
         <v>41800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>41000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>126500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>33500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,8 +948,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -940,17 +960,17 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -961,16 +981,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>6800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1046,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>233300</v>
+      </c>
+      <c r="E17" s="3">
         <v>219300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>212900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>377500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>146100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>132300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>126300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>111200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>120500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>112900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>114700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-65800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-70300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-251700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-32300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-31300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-38600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-35300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-54300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-56100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-63700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-68300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1112,84 +1145,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-61600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-67900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-249800</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>-25400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-46000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1226,67 +1266,73 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-64200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-70300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-252000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-32400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-38400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-36200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-54300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-56000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-63600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1300,10 +1346,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-64300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-71000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-252800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-32400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-38400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-36200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-54300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-56000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-63700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-64300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-71000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-252800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-32400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-38400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-36200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-54300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-56000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-63700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,84 +1635,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-64300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-71000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-252800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-32400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-38400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-36200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-54300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-56000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-63700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-64300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-71000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-252800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-32400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-38400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-36200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-54300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-56000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-63700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E38" s="2">
         <v>44772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44590</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44317</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44226</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44044</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43953</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,26 +1881,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>447000</v>
+      </c>
+      <c r="E41" s="3">
         <v>826100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>859800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>921200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>267500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1833,31 +1920,34 @@
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>291800</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1871,26 +1961,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>90800</v>
+      </c>
+      <c r="E43" s="3">
         <v>77400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>84900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>82000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>59400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1909,26 +2002,29 @@
       <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E44" s="3">
         <v>39100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>42000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>33100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>22300</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>16</v>
       </c>
@@ -1947,26 +2043,29 @@
       <c r="N44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E45" s="3">
         <v>93400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>81900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>63900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>56800</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1985,26 +2084,29 @@
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>963000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1036000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1068600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1100200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>406000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2023,31 +2125,34 @@
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>63700</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2061,26 +2166,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>175900</v>
+      </c>
+      <c r="E48" s="3">
         <v>180100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>179200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>171200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>168800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2099,8 +2207,11 @@
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,26 +2330,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>347400</v>
+      </c>
+      <c r="E52" s="3">
         <v>312900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>297100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>296600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>264700</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2251,8 +2371,11 @@
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,26 +2412,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1550000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1529000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1545000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1567900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>839500</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2327,8 +2453,11 @@
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,26 +2489,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E57" s="3">
         <v>20400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>40800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>42300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2397,8 +2528,11 @@
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2435,26 +2569,29 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>334500</v>
+      </c>
+      <c r="E59" s="3">
         <v>321400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>311500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>283600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>242100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2473,26 +2610,29 @@
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>377800</v>
+      </c>
+      <c r="E60" s="3">
         <v>341800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>352300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>338300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>284400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2511,8 +2651,11 @@
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2549,26 +2692,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>232400</v>
+      </c>
+      <c r="E62" s="3">
         <v>234100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>230300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>240700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>235300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2587,8 +2733,11 @@
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,26 +2856,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>610200</v>
+      </c>
+      <c r="E66" s="3">
         <v>575900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>582500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>579000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>519700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2739,8 +2897,11 @@
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2846,11 +3014,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>949100</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,26 +3078,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1114800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1056200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-991900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-921000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-668200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
       </c>
@@ -2945,8 +3119,11 @@
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,26 +3242,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>939800</v>
+      </c>
+      <c r="E76" s="3">
         <v>953100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>962400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>988900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-629200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3097,8 +3283,11 @@
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E80" s="2">
         <v>44772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44590</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44499</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44317</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44226</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44044</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43953</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-64300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-71000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-252800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-32400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-38400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-36200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-54300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-56000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-63700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,23 +3430,24 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E83" s="3">
         <v>2600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>16</v>
       </c>
@@ -3264,14 +3463,17 @@
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,23 +3674,26 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-48800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-48300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>16</v>
       </c>
@@ -3492,14 +3709,17 @@
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,23 +3734,24 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>16</v>
       </c>
@@ -3546,14 +3767,17 @@
       <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,23 +3855,26 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-365600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9500</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>16</v>
       </c>
@@ -3660,14 +3890,17 @@
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,23 +4077,26 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>9700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>703000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>16</v>
       </c>
@@ -3866,19 +4112,22 @@
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>-200</v>
@@ -3886,8 +4135,8 @@
       <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
+      <c r="G101" s="3">
+        <v>-200</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>16</v>
@@ -3904,29 +4153,32 @@
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-379100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-33700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-61400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>645100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>16</v>
       </c>
@@ -3942,10 +4194,13 @@
       <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>IOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,208 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
         <v>44863</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44772</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44590</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44499</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44317</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44226</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44044</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43953</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>186600</v>
+      </c>
+      <c r="E8" s="3">
         <v>169800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>153500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>142600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>125800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>113800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>101000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>87700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>75900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>66200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>56800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>51000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E9" s="3">
         <v>47300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>44300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>39600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>38700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>31800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>28400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>25600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>135100</v>
+      </c>
+      <c r="E10" s="3">
         <v>122500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>109200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>103000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>87100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>82000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>72600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>62100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>37900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>34400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,49 +882,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E12" s="3">
         <v>50000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>41800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>41000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>126500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>33500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>24200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -951,8 +968,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -963,17 +983,17 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -984,16 +1004,19 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>6800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1056,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1073,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>246600</v>
+      </c>
+      <c r="E17" s="3">
         <v>233300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>219300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>212900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>377500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>146100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>132300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>126300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>111200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>120500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>112900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>114700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-63500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-65800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-70300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-251700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-32300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-31300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-38600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-35300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-54300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-56100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-63700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-68300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1146,90 +1179,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E20" s="3">
         <v>5600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-54500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-61600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-67900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-249800</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>-25400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-46000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1269,73 +1309,79 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-57900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-64200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-70300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-252000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-32400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-38400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-36200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-54300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-56000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-63600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1349,10 +1395,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-58600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-64300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-71000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-252800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-32400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-31400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-38400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-36200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-54300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-56000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-63700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-58600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-64300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-71000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-252800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-32400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-38400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-36200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-54300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-56000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-63700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1617,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,90 +1705,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-58600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-64300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-71000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-252800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-32400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-38400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-36200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-54300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-56000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-63700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-58600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-64300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-71000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-252800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-32400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-38400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-36200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-54300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-56000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-63700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
         <v>44863</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44772</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44590</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44499</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44317</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44226</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44044</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43953</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,29 +1968,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200700</v>
+      </c>
+      <c r="E41" s="3">
         <v>447000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>826100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>859800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>921200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>267500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1923,17 +2010,20 @@
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>489200</v>
+      </c>
+      <c r="E42" s="3">
         <v>291800</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
@@ -1949,8 +2039,8 @@
       <c r="J42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1964,29 +2054,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E43" s="3">
         <v>90800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>77400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>84900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>82000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>59400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2005,29 +2098,32 @@
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E44" s="3">
         <v>44500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>39100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>42000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>33100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>22300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2046,29 +2142,32 @@
       <c r="O44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>104200</v>
+      </c>
+      <c r="E45" s="3">
         <v>88900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>93400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>81900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>63900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>56800</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2087,29 +2186,32 @@
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>957500</v>
+      </c>
+      <c r="E46" s="3">
         <v>963000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1036000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1068600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1100200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>406000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2128,17 +2230,20 @@
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E47" s="3">
         <v>63700</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2154,8 +2259,8 @@
       <c r="J47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2169,29 +2274,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>171900</v>
+      </c>
+      <c r="E48" s="3">
         <v>175900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>180100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>179200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>171200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>168800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2210,8 +2318,11 @@
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2251,8 +2362,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,29 +2450,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>374500</v>
+      </c>
+      <c r="E52" s="3">
         <v>347400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>312900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>297100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>296600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>264700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2374,8 +2494,11 @@
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,29 +2538,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1617000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1550000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1529000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1545000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1567900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>839500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2456,8 +2582,11 @@
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,29 +2620,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E57" s="3">
         <v>43400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>42300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2531,8 +2662,11 @@
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2572,29 +2706,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>412000</v>
+      </c>
+      <c r="E59" s="3">
         <v>334500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>321400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>311500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>283600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>242100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2613,29 +2750,32 @@
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>442200</v>
+      </c>
+      <c r="E60" s="3">
         <v>377800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>341800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>352300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>338300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>284400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2654,8 +2794,11 @@
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2695,29 +2838,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>236800</v>
+      </c>
+      <c r="E62" s="3">
         <v>232400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>234100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>230300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>240700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>235300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2736,8 +2882,11 @@
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,29 +3014,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>679000</v>
+      </c>
+      <c r="E66" s="3">
         <v>610200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>575900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>582500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>579000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>519700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2900,8 +3058,11 @@
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3017,11 +3185,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>949100</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,29 +3252,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1168400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1114800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1056200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-991900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-921000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-668200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3122,8 +3296,11 @@
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,29 +3428,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>938000</v>
+      </c>
+      <c r="E76" s="3">
         <v>939800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>953100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>962400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>988900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-629200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3286,8 +3472,11 @@
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
         <v>44863</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44772</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44590</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44499</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44317</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44226</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44044</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43953</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-58600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-64300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-71000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-252800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-32400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-38400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-36200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-54300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-56000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-63700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,26 +3629,27 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E83" s="3">
         <v>3300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
       </c>
@@ -3466,14 +3665,17 @@
       <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,26 +3891,29 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-48800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-48300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
       </c>
@@ -3712,14 +3929,17 @@
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,31 +3955,32 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>16</v>
@@ -3770,14 +3991,17 @@
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,26 +4085,29 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-249300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-365600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
       </c>
@@ -3893,14 +4123,17 @@
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,26 +4323,29 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>703000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
       </c>
@@ -4115,22 +4361,25 @@
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-200</v>
       </c>
       <c r="F101" s="3">
         <v>-200</v>
@@ -4138,8 +4387,8 @@
       <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
+      <c r="H101" s="3">
+        <v>-200</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
@@ -4156,32 +4405,35 @@
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-246400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-379100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-33700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-61400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>645100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>16</v>
       </c>
@@ -4197,10 +4449,13 @@
       <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IOT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,208 +665,220 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E7" s="2">
         <v>44954</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44863</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44772</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44590</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44499</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44317</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44226</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44044</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43953</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>204300</v>
+      </c>
+      <c r="E8" s="3">
         <v>186600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>169800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>153500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>142600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>125800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>113800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>101000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>87700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>75900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>66200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>56800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>51000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E9" s="3">
         <v>51500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>47300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>44300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>39600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>38700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>31800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>28400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>25600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>146700</v>
+      </c>
+      <c r="E10" s="3">
         <v>135100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>122500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>109200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>103000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>87100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>82000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>72600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>47500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>37900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>34400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -883,52 +895,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E12" s="3">
         <v>54600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>50000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>41800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>41000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>126500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>33500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -971,8 +987,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,17 +1005,17 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1007,16 +1026,19 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>6800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1099,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>280100</v>
+      </c>
+      <c r="E17" s="3">
         <v>246600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>233300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>219300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>212900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>377500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>146100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>132300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>126300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>111200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>120500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>112900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>114700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-75800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-60000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-63500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-65800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-70300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-251700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-32300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-31300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-38600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-35300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-54300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-56100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-63700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-68300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1180,96 +1212,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E20" s="3">
         <v>8500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-48000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-54500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-61600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-67900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-249800</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>-25400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-46000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1312,79 +1351,85 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-51500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-57900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-64200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-70300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-252000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-32400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-38400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-36200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-54300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-56000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-63600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1398,10 +1443,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-53600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-58600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-64300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-71000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-252800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-32400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-31400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-38400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-36200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-54300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-56000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-63700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-53600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-58600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-64300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-71000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-252800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-32400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-31400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-38400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-36200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-54300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-56000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-63700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1620,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,96 +1774,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-53600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-58600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-64300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-71000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-252800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-32400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-31400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-38400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-36200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-54300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-56000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-63700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-53600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-58600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-64300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-71000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-252800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-32400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-31400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-38400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-36200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-54300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-56000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-63700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E38" s="2">
         <v>44954</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44863</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44772</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44590</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44499</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44317</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44226</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44044</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43953</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,32 +2054,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>192100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>447000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>826100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>859800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>921200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>267500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2013,20 +2099,23 @@
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>533900</v>
+      </c>
+      <c r="E42" s="3">
         <v>489200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>291800</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2042,8 +2131,8 @@
       <c r="K42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2057,32 +2146,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E43" s="3">
         <v>122900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>90800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>77400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>84900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>82000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>59400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2101,32 +2193,35 @@
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E44" s="3">
         <v>40600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>44500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>39100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>42000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>33100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>22300</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2145,32 +2240,35 @@
       <c r="P44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E45" s="3">
         <v>104200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>88900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>93400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>81900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>63900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>56800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2189,32 +2287,35 @@
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>970600</v>
+      </c>
+      <c r="E46" s="3">
         <v>957500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>963000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1036000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1068600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>406000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2233,20 +2334,23 @@
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E47" s="3">
         <v>113100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>63700</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2262,8 +2366,8 @@
       <c r="K47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2277,32 +2381,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>156100</v>
+      </c>
+      <c r="E48" s="3">
         <v>171900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>175900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>180100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>179200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>171200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>168800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2321,8 +2428,11 @@
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2365,8 +2475,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,32 +2569,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>384100</v>
+      </c>
+      <c r="E52" s="3">
         <v>374500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>347400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>312900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>297100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>296600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>264700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2497,8 +2616,11 @@
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,32 +2663,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1598500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1617000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1550000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1529000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1545000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1567900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>839500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2585,8 +2710,11 @@
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,32 +2750,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E57" s="3">
         <v>30100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>43400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>42300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2665,8 +2795,11 @@
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2709,32 +2842,35 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>411600</v>
+      </c>
+      <c r="E59" s="3">
         <v>412000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>334500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>321400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>311500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>283600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>242100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2753,32 +2889,35 @@
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>440900</v>
+      </c>
+      <c r="E60" s="3">
         <v>442200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>377800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>341800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>352300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>338300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>284400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,8 +2936,11 @@
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2841,32 +2983,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>235100</v>
+      </c>
+      <c r="E62" s="3">
         <v>236800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>232400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>234100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>230300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>240700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>235300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2885,8 +3030,11 @@
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,32 +3171,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>676000</v>
+      </c>
+      <c r="E66" s="3">
         <v>679000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>610200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>575900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>582500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>579000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>519700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3061,8 +3218,11 @@
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3188,11 +3355,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>949100</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3211,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,32 +3425,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1236200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1168400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1114800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1056200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-991900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-921000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-668200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3299,8 +3472,11 @@
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,32 +3613,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>922600</v>
+      </c>
+      <c r="E76" s="3">
         <v>938000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>939800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>953100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>962400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>988900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-629200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3475,8 +3660,11 @@
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E80" s="2">
         <v>44954</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44863</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44772</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44590</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44499</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44317</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44226</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44044</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43953</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-53600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-58600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-64300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-71000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-252800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-32400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-31400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-38400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-36200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-54300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-56000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-63700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,29 +3827,30 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E83" s="3">
         <v>3400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
       </c>
@@ -3668,14 +3866,17 @@
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,29 +4107,32 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-48800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-48300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>16</v>
       </c>
@@ -3932,14 +4148,17 @@
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,34 +4175,35 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9400</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>16</v>
@@ -3994,14 +4214,17 @@
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,29 +4314,32 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-249300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-365600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9500</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>16</v>
       </c>
@@ -4126,14 +4355,17 @@
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4194,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,29 +4568,32 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>6700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>703000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
       </c>
@@ -4364,25 +4609,28 @@
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-200</v>
       </c>
       <c r="G101" s="3">
         <v>-200</v>
@@ -4390,8 +4638,8 @@
       <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
+      <c r="I101" s="3">
+        <v>-200</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>16</v>
@@ -4408,35 +4656,38 @@
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-246400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-379100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-33700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-61400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>645100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>16</v>
       </c>
@@ -4452,10 +4703,13 @@
       <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IOT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,220 +665,233 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E7" s="2">
         <v>45045</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44954</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44863</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44772</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44590</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44499</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44317</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44226</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44044</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43953</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>219300</v>
+      </c>
+      <c r="E8" s="3">
         <v>204300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>186600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>169800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>153500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>142600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>125800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>113800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>101000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>87700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>75900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>66200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>56800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>51000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E9" s="3">
         <v>57600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>51500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>47300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>44300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>31800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>25600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E10" s="3">
         <v>146700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>135100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>122500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>109200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>103000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>87100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>82000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>72600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>47500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>37900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>34400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -896,55 +909,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E12" s="3">
         <v>60400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>54600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>50000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>41800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>41000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>126500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>33500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,8 +1007,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,17 +1028,17 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1029,16 +1049,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>6800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1084,8 +1107,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,102 +1126,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E17" s="3">
         <v>280100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>246600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>233300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>219300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>212900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>377500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>146100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>132300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>126300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>111200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>120500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>112900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>114700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-75800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-60000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-63500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-65800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-70300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-251700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-32300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-31300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-38600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-35300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-54300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-56100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-68300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,102 +1246,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E20" s="3">
         <v>8900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-63400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-48000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-54500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-61600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-67900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-249800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>-25400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-46000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,85 +1394,91 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-66900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-51500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-57900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-64200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-70300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-252000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-32400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-38400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-54300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-56000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-63600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1446,10 +1492,13 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,102 +1544,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-67900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-53600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-58600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-64300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-71000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-252800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-32400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-38400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-36200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-54300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-56000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-67900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-53600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-58600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-64300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-71000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-252800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-32400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-38400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-36200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-54300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-56000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1694,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1744,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1794,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,102 +1844,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-67900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-53600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-58600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-64300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-71000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-252800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-32400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-38400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-36200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-54300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-56000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,107 +1994,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-67900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-53600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-58600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-64300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-71000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-252800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-32400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-38400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-36200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-54300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-56000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E38" s="2">
         <v>45045</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44954</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44863</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44772</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44590</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44499</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44317</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44226</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44044</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43953</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2121,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,35 +2141,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E41" s="3">
         <v>192100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>447000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>826100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>859800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>921200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>267500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2102,23 +2189,26 @@
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>528800</v>
+      </c>
+      <c r="E42" s="3">
         <v>533900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>489200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>291800</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2134,8 +2224,8 @@
       <c r="L42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2149,35 +2239,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E43" s="3">
         <v>102600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>122900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>90800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>77400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>84900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>82000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>59400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2196,35 +2289,38 @@
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E44" s="3">
         <v>32400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>40600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>44500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>39100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>42000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>33100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>22300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2243,35 +2339,38 @@
       <c r="Q44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E45" s="3">
         <v>109600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>104200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>88900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>93400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>81900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>63900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>56800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2290,35 +2389,38 @@
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>978000</v>
+      </c>
+      <c r="E46" s="3">
         <v>970600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>957500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>963000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1036000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1068600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>406000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2337,23 +2439,26 @@
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>109700</v>
+      </c>
+      <c r="E47" s="3">
         <v>87800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>113100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>63700</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2369,8 +2474,8 @@
       <c r="L47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2384,35 +2489,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>151100</v>
+      </c>
+      <c r="E48" s="3">
         <v>156100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>171900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>175900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>180100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>179200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>171200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>168800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2431,8 +2539,11 @@
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2478,8 +2589,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2639,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,35 +2689,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>403900</v>
+      </c>
+      <c r="E52" s="3">
         <v>384100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>374500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>347400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>312900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>297100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>296600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>264700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2619,8 +2739,11 @@
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,35 +2789,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1642600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1598500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1617000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1550000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1529000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1545000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1567900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>839500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2713,8 +2839,11 @@
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2861,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,35 +2881,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E57" s="3">
         <v>29200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>54700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>42300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2798,8 +2929,11 @@
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2845,35 +2979,38 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>444700</v>
+      </c>
+      <c r="E59" s="3">
         <v>411600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>412000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>334500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>321400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>311500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>283600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>242100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2892,35 +3029,38 @@
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>479300</v>
+      </c>
+      <c r="E60" s="3">
         <v>440900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>442200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>377800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>341800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>352300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>338300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>284400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2939,8 +3079,11 @@
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2986,35 +3129,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>226900</v>
+      </c>
+      <c r="E62" s="3">
         <v>235100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>236800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>232400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>234100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>230300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>240700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>235300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3033,8 +3179,11 @@
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3229,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3279,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,35 +3329,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>706300</v>
+      </c>
+      <c r="E66" s="3">
         <v>676000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>679000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>610200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>575900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>582500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>579000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>519700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3221,8 +3379,11 @@
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3401,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3449,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3499,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3358,11 +3526,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>949100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3381,8 +3549,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,35 +3599,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1296200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1236200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1168400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1114800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1056200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-991900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-921000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-668200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3475,8 +3649,11 @@
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3699,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3749,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,35 +3799,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>936400</v>
+      </c>
+      <c r="E76" s="3">
         <v>922600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>938000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>939800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>953100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>962400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>988900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-629200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3663,8 +3849,11 @@
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +3899,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E80" s="2">
         <v>45045</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44954</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44863</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44772</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44590</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44499</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44317</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44226</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44044</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43953</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-67900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-53600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-58600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-64300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-71000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-252800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-32400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-38400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-36200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-54300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-56000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,32 +4026,33 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E83" s="3">
         <v>3500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
@@ -3869,14 +4068,17 @@
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4124,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4174,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4224,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4274,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,32 +4324,35 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E89" s="3">
         <v>10500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-37000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-48800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-48300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
@@ -4151,14 +4368,17 @@
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,37 +4396,38 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9400</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>16</v>
@@ -4217,14 +4438,17 @@
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4494,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,32 +4544,35 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-249300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-365600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
@@ -4358,14 +4588,17 @@
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4616,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4664,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4714,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +4764,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,32 +4814,35 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>703000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
@@ -4612,28 +4858,31 @@
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-200</v>
       </c>
       <c r="H101" s="3">
         <v>-200</v>
@@ -4641,8 +4890,8 @@
       <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
+      <c r="J101" s="3">
+        <v>-200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>16</v>
@@ -4659,38 +4908,41 @@
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-246400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-379100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-33700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-61400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>645100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>16</v>
       </c>
@@ -4706,10 +4958,13 @@
       <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>
